--- a/data/OR DC data.xlsx
+++ b/data/OR DC data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lknelson\Documents\GitHub\climate_perceptions\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2496099D-1C5E-4F0F-A884-314351934864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A69E8CF-7A06-41E7-BD44-59B49AF65A8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21960" yWindow="1470" windowWidth="26235" windowHeight="13605" xr2:uid="{BC6777D8-556E-4B3B-A3B6-F92416A4E19C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BC6777D8-556E-4B3B-A3B6-F92416A4E19C}"/>
   </bookViews>
   <sheets>
     <sheet name="DC fishers OR residents" sheetId="1" r:id="rId1"/>
@@ -2388,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABDF05D-0325-4696-95F4-9A764C43B548}">
   <dimension ref="A1:HT12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="GL1" workbookViewId="0">
+      <selection activeCell="GV5" sqref="GV5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10632,7 +10632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3607A2-02D2-4E95-8F31-E2E90389DBF5}">
   <dimension ref="A1:HT26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z10" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
